--- a/data/trans_orig/P11_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8252</v>
+        <v>8092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22184</v>
+        <v>22270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05145398253283377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03022668968351359</v>
+        <v>0.02963823014335027</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08125608084480576</v>
+        <v>0.08157166934539015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6212</v>
+        <v>6421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19529</v>
+        <v>20316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04523799542540704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02381726255352756</v>
+        <v>0.02461841878456134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0748683976400235</v>
+        <v>0.07788704335781559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>25847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17506</v>
+        <v>17099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37939</v>
+        <v>36738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04841685189414315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03279176649178861</v>
+        <v>0.03202975983149545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07106640832358682</v>
+        <v>0.06881741832618984</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>258963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250826</v>
+        <v>250740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264758</v>
+        <v>264918</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9485460174671663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9187439191551949</v>
+        <v>0.9184283306546109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9697733103164865</v>
+        <v>0.97036176985665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -836,19 +836,19 @@
         <v>249038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241309</v>
+        <v>240522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254626</v>
+        <v>254417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9547620045745929</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9251316023599768</v>
+        <v>0.9221129566421852</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9761827374464729</v>
+        <v>0.9753815812154391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>490</v>
@@ -857,19 +857,19 @@
         <v>508001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>495909</v>
+        <v>497110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516342</v>
+        <v>516749</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9515831481058569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9289335916764132</v>
+        <v>0.93118258167381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9672082335082114</v>
+        <v>0.9679702401685045</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19507</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11452</v>
+        <v>12295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31718</v>
+        <v>31919</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03956153806605098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02322630841931525</v>
+        <v>0.0249363198704147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06432639112897436</v>
+        <v>0.06473390885845066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -982,19 +982,19 @@
         <v>40261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29601</v>
+        <v>29329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54418</v>
+        <v>53496</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07989118716006187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05873747560293712</v>
+        <v>0.05819816365373674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1079822906480707</v>
+        <v>0.1061539991422857</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -1003,19 +1003,19 @@
         <v>59768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45844</v>
+        <v>45189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75425</v>
+        <v>75869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05994628837592195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0459804674166901</v>
+        <v>0.0453240364992879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07564979613107449</v>
+        <v>0.07609588973355616</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>473568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461357</v>
+        <v>461156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481623</v>
+        <v>480780</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.960438461933949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9356736088710258</v>
+        <v>0.9352660911415495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9767736915806847</v>
+        <v>0.9750636801295853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>459</v>
@@ -1053,19 +1053,19 @@
         <v>463688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449531</v>
+        <v>450453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474348</v>
+        <v>474620</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9201088128399382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8920177093519293</v>
+        <v>0.8938460008577143</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9412625243970628</v>
+        <v>0.9418018363462631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>908</v>
@@ -1074,19 +1074,19 @@
         <v>937256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>921599</v>
+        <v>921155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>951180</v>
+        <v>951835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.940053711624078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9243502038689253</v>
+        <v>0.9239041102664435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9540195325833095</v>
+        <v>0.954675963500712</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8754</v>
+        <v>9129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009392457354755685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002726134452583918</v>
+        <v>0.002732452693991837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02745400637268132</v>
+        <v>0.02863140434050123</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3049</v>
+        <v>3178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13879</v>
+        <v>14231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02113403578641171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009091741374314783</v>
+        <v>0.009473587056592622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04137987234826779</v>
+        <v>0.04242736255318266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>10083</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5246</v>
+        <v>5052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18771</v>
+        <v>17825</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01541189746636648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008018917708127115</v>
+        <v>0.007722302797906784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02869120571607226</v>
+        <v>0.02724449467586975</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310092</v>
+        <v>309717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317977</v>
+        <v>317975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9906075426452443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9725459936273185</v>
+        <v>0.9713685956594993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997273865547416</v>
+        <v>0.9972675473060082</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -1270,19 +1270,19 @@
         <v>328323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321533</v>
+        <v>321181</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332363</v>
+        <v>332234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9788659642135883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9586201276517322</v>
+        <v>0.9575726374468173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9909082586256852</v>
+        <v>0.9905264129434075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>634</v>
@@ -1291,19 +1291,19 @@
         <v>644175</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635487</v>
+        <v>636433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649012</v>
+        <v>649206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9845881025336335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9713087942839275</v>
+        <v>0.9727555053241307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9919810822918728</v>
+        <v>0.9922776972020932</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4211</v>
+        <v>4409</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16468</v>
+        <v>16453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02509671507365039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01174171426095437</v>
+        <v>0.01229314504195303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04591383200399211</v>
+        <v>0.04587182356968461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12065</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6342</v>
+        <v>6638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19771</v>
+        <v>20302</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03247907956695047</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01707465691615034</v>
+        <v>0.01787085431902155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05322454164127924</v>
+        <v>0.05465503785543403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>21066</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13586</v>
+        <v>13061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32198</v>
+        <v>31226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02885253157923362</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01860839757619086</v>
+        <v>0.01788830032012627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04409853414068615</v>
+        <v>0.04276808323682464</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342203</v>
+        <v>342218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354460</v>
+        <v>354262</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9749032849263496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.954086167996008</v>
+        <v>0.9541281764303153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9882582857390456</v>
+        <v>0.987706854958047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -1487,19 +1487,19 @@
         <v>359391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351685</v>
+        <v>351154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365114</v>
+        <v>364818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9675209204330495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9467754583587208</v>
+        <v>0.945344962144566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9829253430838496</v>
+        <v>0.9821291456809784</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>709061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697929</v>
+        <v>698901</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716541</v>
+        <v>717066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9711474684207664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9559014658593136</v>
+        <v>0.9572319167631751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9813916024238092</v>
+        <v>0.9821116996798737</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9611</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4421</v>
+        <v>4921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16555</v>
+        <v>16828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04727127092653331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02174592889813741</v>
+        <v>0.02420498578981132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08142631240435211</v>
+        <v>0.08277208516414937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3150</v>
+        <v>3161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14096</v>
+        <v>14645</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03600290409530271</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01516789496232802</v>
+        <v>0.01522348269370765</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06787858518075221</v>
+        <v>0.07052251852588075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1654,19 +1654,19 @@
         <v>17087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10403</v>
+        <v>9527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26607</v>
+        <v>26307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04157731570482083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02531241775190239</v>
+        <v>0.02318036774386468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06473987296517476</v>
+        <v>0.06401008565044303</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>193697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186753</v>
+        <v>186480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198887</v>
+        <v>198387</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9527287290734667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9185736875956478</v>
+        <v>0.9172279148358506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9782540711018626</v>
+        <v>0.9757950142101883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -1704,19 +1704,19 @@
         <v>200191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193572</v>
+        <v>193023</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204518</v>
+        <v>204507</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9639970959046973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9321214148192478</v>
+        <v>0.9294774814741199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.984832105037672</v>
+        <v>0.9847765173062923</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1725,19 +1725,19 @@
         <v>393889</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384369</v>
+        <v>384669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400573</v>
+        <v>401449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9584226842951792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9352601270348253</v>
+        <v>0.935989914349557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9746875822480976</v>
+        <v>0.9768196322561354</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6765</v>
+        <v>5894</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006934979738820019</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02497987706279908</v>
+        <v>0.02176395029443819</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1850,19 +1850,19 @@
         <v>12160</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6660</v>
+        <v>6220</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20613</v>
+        <v>21068</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04371687966628576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02394593771731563</v>
+        <v>0.02236383304084335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07410739560720545</v>
+        <v>0.07574522394226445</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1871,19 +1871,19 @@
         <v>14038</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8094</v>
+        <v>8271</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23440</v>
+        <v>24191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02557159785674357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0147446087261945</v>
+        <v>0.01506653964867056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04269853992832946</v>
+        <v>0.04406729961635556</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>268933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264046</v>
+        <v>264917</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9930650202611799</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9750201229372009</v>
+        <v>0.9782360497055619</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>265984</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257531</v>
+        <v>257076</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271484</v>
+        <v>271924</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9562831203337142</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9258926043927942</v>
+        <v>0.9242547760577358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9760540622826841</v>
+        <v>0.9776361669591568</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -1942,19 +1942,19 @@
         <v>534917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525515</v>
+        <v>524764</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>540861</v>
+        <v>540684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9744284021432564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9573014600716705</v>
+        <v>0.9559327003836438</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9852553912738055</v>
+        <v>0.9849334603513293</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>20063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12224</v>
+        <v>13056</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29737</v>
+        <v>30754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03262079442053261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01987507736749515</v>
+        <v>0.02122797627401827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04834994394656833</v>
+        <v>0.05000430167774576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2067,19 +2067,19 @@
         <v>30520</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20959</v>
+        <v>20888</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42381</v>
+        <v>42051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04782067105367277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03283937561092808</v>
+        <v>0.03272844280376477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06640564761334442</v>
+        <v>0.06588869766818975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2088,19 +2088,19 @@
         <v>50583</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38924</v>
+        <v>37512</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66137</v>
+        <v>64851</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04036137394029157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03105864300322594</v>
+        <v>0.02993181310474676</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05277217519550331</v>
+        <v>0.05174636034799564</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>594964</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585290</v>
+        <v>584273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>602803</v>
+        <v>601971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9673792055794674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9516500560534318</v>
+        <v>0.9499956983222543</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9801249226325053</v>
+        <v>0.978772023725982</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>590</v>
@@ -2138,19 +2138,19 @@
         <v>607699</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>595838</v>
+        <v>596168</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617260</v>
+        <v>617331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9521793289463272</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9335943523866564</v>
+        <v>0.9341113023318102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9671606243890721</v>
+        <v>0.9672715571962353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1167</v>
@@ -2159,19 +2159,19 @@
         <v>1202663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1187109</v>
+        <v>1188395</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1214322</v>
+        <v>1215734</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9596386260597084</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9472278248044966</v>
+        <v>0.9482536396520044</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.968941356996774</v>
+        <v>0.9700681868952532</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>37785</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26342</v>
+        <v>26573</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51310</v>
+        <v>51026</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05080016347383236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03541511234629968</v>
+        <v>0.0357261466209077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06898359748268981</v>
+        <v>0.06860176424742026</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2284,19 +2284,19 @@
         <v>54209</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41163</v>
+        <v>40923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71620</v>
+        <v>70019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06918725720406098</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05253630593513833</v>
+        <v>0.0522297127045027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09140952377442153</v>
+        <v>0.08936606962587303</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -2305,19 +2305,19 @@
         <v>91994</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74039</v>
+        <v>73945</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114714</v>
+        <v>111499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06023277868050225</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04847677340149297</v>
+        <v>0.04841510150925277</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07510867502589945</v>
+        <v>0.07300342916606425</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>706010</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>692485</v>
+        <v>692769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>717453</v>
+        <v>717222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9491998365261677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9310164025173102</v>
+        <v>0.9313982357525796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9645848876537003</v>
+        <v>0.9642738533790923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>696</v>
@@ -2355,19 +2355,19 @@
         <v>729302</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>711891</v>
+        <v>713492</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>742348</v>
+        <v>742588</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9308127427959391</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9085904762255785</v>
+        <v>0.9106339303741269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9474636940648615</v>
+        <v>0.9477702872954972</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1393</v>
@@ -2376,19 +2376,19 @@
         <v>1435312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1412592</v>
+        <v>1415807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1453267</v>
+        <v>1453361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9397672213194977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9248913249741005</v>
+        <v>0.9269965708339357</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9515232265985071</v>
+        <v>0.9515848984907472</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>114887</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03506340139130117</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>169</v>
@@ -2501,19 +2501,19 @@
         <v>175579</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05195888329877429</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>284</v>
@@ -2522,19 +2522,19 @@
         <v>290466</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04364143502619839</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3161656</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3136731</v>
+        <v>3139905</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3179821</v>
+        <v>3181272</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9649365986086988</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9573294018265623</v>
+        <v>0.958298238812351</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.970480358658053</v>
+        <v>0.970923219750806</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3128</v>
@@ -2572,19 +2572,19 @@
         <v>3203618</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3177635</v>
+        <v>3176368</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3229198</v>
+        <v>3227700</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9480411167012257</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9403522380173264</v>
+        <v>0.9399770697285891</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9556111238472099</v>
+        <v>0.9551676657158275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6227</v>
@@ -2593,19 +2593,19 @@
         <v>6365275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6330500</v>
+        <v>6328445</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6396554</v>
+        <v>6395761</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9563585649738016</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9511338208375529</v>
+        <v>0.950824951481799</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9610581016270013</v>
+        <v>0.9609390382985447</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>19496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12112</v>
+        <v>11944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29726</v>
+        <v>29850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06684656265036416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04152862686742203</v>
+        <v>0.04095165262739858</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1019200633067671</v>
+        <v>0.1023448751341429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2962,19 +2962,19 @@
         <v>44930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32492</v>
+        <v>33583</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58274</v>
+        <v>58582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1569289066779376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.113488079665709</v>
+        <v>0.1172984432669963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2035369928046115</v>
+        <v>0.2046115735706688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2983,19 +2983,19 @@
         <v>64426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50878</v>
+        <v>49941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84503</v>
+        <v>81792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1114705362153007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0880302155079886</v>
+        <v>0.08640758290426144</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1462077646277667</v>
+        <v>0.1415176190985608</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>272164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261934</v>
+        <v>261810</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279548</v>
+        <v>279716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9331534373496359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8980799366932325</v>
+        <v>0.8976551248658567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9584713731325779</v>
+        <v>0.9590483473726014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -3033,19 +3033,19 @@
         <v>241376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228032</v>
+        <v>227724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253814</v>
+        <v>252723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8430710933220624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7964630071953885</v>
+        <v>0.7953884264293311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8865119203342914</v>
+        <v>0.8827015567330035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -3054,19 +3054,19 @@
         <v>513540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>493463</v>
+        <v>496174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>527088</v>
+        <v>528025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8885294637846992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8537922353722334</v>
+        <v>0.8584823809014392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9119697844920114</v>
+        <v>0.9135924170957387</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>34143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22674</v>
+        <v>23598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49585</v>
+        <v>50688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06766555647404114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04493550330723948</v>
+        <v>0.04676677797493312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09826950064084136</v>
+        <v>0.1004551027026733</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -3179,19 +3179,19 @@
         <v>65766</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50061</v>
+        <v>51230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82817</v>
+        <v>81692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1255641151345089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09557821190439381</v>
+        <v>0.09781052999346049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1581186793054989</v>
+        <v>0.1559715369220781</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3200,19 +3200,19 @@
         <v>99909</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80056</v>
+        <v>81813</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121523</v>
+        <v>123234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09715490944707136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07784943056662276</v>
+        <v>0.07955763228202195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1181732697851784</v>
+        <v>0.1198373607064719</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>470437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454995</v>
+        <v>453892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481906</v>
+        <v>480982</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9323344435259588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9017304993591585</v>
+        <v>0.8995448972973269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9550644966927605</v>
+        <v>0.953233222025067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -3250,19 +3250,19 @@
         <v>457999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>440948</v>
+        <v>442073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473704</v>
+        <v>472535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8744358848654911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8418813206945004</v>
+        <v>0.8440284630779218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9044217880956056</v>
+        <v>0.9021894700065394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>865</v>
@@ -3271,19 +3271,19 @@
         <v>928436</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>906822</v>
+        <v>905111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>948289</v>
+        <v>946532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9028450905529286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8818267302148215</v>
+        <v>0.880162639293528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9221505694333773</v>
+        <v>0.9204423677179779</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>19241</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11306</v>
+        <v>12072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30438</v>
+        <v>30577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05937713833274765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0348910494707827</v>
+        <v>0.03725523197022189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09393123447409496</v>
+        <v>0.09435937770362933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3396,19 +3396,19 @@
         <v>26834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17610</v>
+        <v>17997</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37457</v>
+        <v>36709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07868885345002431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05164060837909016</v>
+        <v>0.05277281128861265</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1098377238602152</v>
+        <v>0.1076442558269699</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3417,19 +3417,19 @@
         <v>46075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33680</v>
+        <v>33378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59966</v>
+        <v>60245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06927943548576124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05064151462021343</v>
+        <v>0.05018791442480495</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09016476931320352</v>
+        <v>0.09058465503926104</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>304805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>293608</v>
+        <v>293469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312740</v>
+        <v>311974</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9406228616672524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9060687655259049</v>
+        <v>0.9056406222963704</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9651089505292173</v>
+        <v>0.9627447680297782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -3467,19 +3467,19 @@
         <v>314186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303563</v>
+        <v>304311</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323410</v>
+        <v>323023</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9213111465499757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8901622761397848</v>
+        <v>0.8923557441730301</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483593916209099</v>
+        <v>0.9472271887113874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>594</v>
@@ -3488,19 +3488,19 @@
         <v>618991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605100</v>
+        <v>604821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631386</v>
+        <v>631688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9307205645142388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9098352306867963</v>
+        <v>0.9094153449607388</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9493584853797865</v>
+        <v>0.949812085575195</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>27622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17926</v>
+        <v>18726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38759</v>
+        <v>39821</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07509831346243266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0487374381430362</v>
+        <v>0.05091181729709704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1053777982864454</v>
+        <v>0.1082641383527358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3613,19 +3613,19 @@
         <v>55661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43492</v>
+        <v>43095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69887</v>
+        <v>70614</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.14382710640382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1123835596857656</v>
+        <v>0.111357314670719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1805888569534794</v>
+        <v>0.1824654623038712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -3634,19 +3634,19 @@
         <v>83283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67076</v>
+        <v>67669</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102136</v>
+        <v>102131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1103360966078681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08886516774403154</v>
+        <v>0.08965047617465251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1353138976465741</v>
+        <v>0.1353076259107743</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>340191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>329054</v>
+        <v>327992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349887</v>
+        <v>349087</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9249016865375673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8946222017135548</v>
+        <v>0.8917358616472641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9512625618569639</v>
+        <v>0.9490881827029028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -3684,19 +3684,19 @@
         <v>331336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317110</v>
+        <v>316383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>343505</v>
+        <v>343902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.85617289359618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8194111430465205</v>
+        <v>0.8175345376961288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8876164403142344</v>
+        <v>0.8886426853292811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>628</v>
@@ -3705,19 +3705,19 @@
         <v>671526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>652673</v>
+        <v>652678</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687733</v>
+        <v>687140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.889663903392132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8646861023534259</v>
+        <v>0.8646923740892257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9111348322559685</v>
+        <v>0.9103495238253476</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5406</v>
+        <v>5247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19725</v>
+        <v>18410</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04967734667891953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02542762956640806</v>
+        <v>0.02467839751591815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0927706631324134</v>
+        <v>0.08658678280720924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3830,19 +3830,19 @@
         <v>25377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17560</v>
+        <v>17191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36720</v>
+        <v>35834</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1155635736900804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07996824991443199</v>
+        <v>0.07828865796096104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1672199703441819</v>
+        <v>0.1631838842555149</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -3851,19 +3851,19 @@
         <v>35939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24594</v>
+        <v>26118</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48767</v>
+        <v>49912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08315194151117823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05690233606886828</v>
+        <v>0.06042969187144911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1128314712811208</v>
+        <v>0.1154817900864496</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192893</v>
+        <v>194208</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207212</v>
+        <v>207371</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9503226533210805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9072293368675866</v>
+        <v>0.9134132171927907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745723704335919</v>
+        <v>0.9753216024840818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -3901,19 +3901,19 @@
         <v>194214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182871</v>
+        <v>183757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202031</v>
+        <v>202400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8844364263099196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8327800296558181</v>
+        <v>0.836816115744484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9200317500855677</v>
+        <v>0.9217113420390386</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -3922,19 +3922,19 @@
         <v>396270</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383442</v>
+        <v>382297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407615</v>
+        <v>406091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9168480584888218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8871685287188794</v>
+        <v>0.8845182099135505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9430976639311318</v>
+        <v>0.9395703081285509</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>15674</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9158</v>
+        <v>9387</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24184</v>
+        <v>25120</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05739029828368278</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03353316632313021</v>
+        <v>0.03437008839152188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08854946540245817</v>
+        <v>0.09197774490274187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -4047,19 +4047,19 @@
         <v>23748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15522</v>
+        <v>15975</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33372</v>
+        <v>33447</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08480529404934486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05542808964973014</v>
+        <v>0.05704811832814478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1191717421822118</v>
+        <v>0.11944073824387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -4068,19 +4068,19 @@
         <v>39422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27813</v>
+        <v>28825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53035</v>
+        <v>53369</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07126922807253892</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05028255962463962</v>
+        <v>0.05211180948158907</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0958787651901566</v>
+        <v>0.09648270341474877</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>257439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248929</v>
+        <v>247993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263955</v>
+        <v>263726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9426097017163172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9114505345975418</v>
+        <v>0.9080222550972582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9664668336768698</v>
+        <v>0.9656299116084781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -4118,19 +4118,19 @@
         <v>256283</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246659</v>
+        <v>246584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264509</v>
+        <v>264056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9151947059506551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8808282578177883</v>
+        <v>0.8805592617561301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9445719103502699</v>
+        <v>0.9429518816718552</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>491</v>
@@ -4139,19 +4139,19 @@
         <v>513722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>500109</v>
+        <v>499775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>525331</v>
+        <v>524319</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9287307719274611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9041212348098434</v>
+        <v>0.9035172965852513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9497174403753604</v>
+        <v>0.9478881905184109</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>19170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11902</v>
+        <v>11453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30439</v>
+        <v>29897</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02896561682427465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01798377331077707</v>
+        <v>0.01730430307406301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0459913075613566</v>
+        <v>0.04517332170249747</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -4264,19 +4264,19 @@
         <v>52950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38493</v>
+        <v>39759</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69448</v>
+        <v>69691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07641957342584348</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05555463630125342</v>
+        <v>0.05738173190435639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1002306652180031</v>
+        <v>0.1005809264149193</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -4285,19 +4285,19 @@
         <v>72120</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55014</v>
+        <v>56033</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91844</v>
+        <v>91797</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05323634241080567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04060919894658149</v>
+        <v>0.04136108782875118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06779584338626508</v>
+        <v>0.06776133000824712</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>642665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>631396</v>
+        <v>631938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>649933</v>
+        <v>650382</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9710343831757253</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9540086924386439</v>
+        <v>0.9548266782975025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9820162266892229</v>
+        <v>0.9826956969259368</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>590</v>
@@ -4335,19 +4335,19 @@
         <v>639931</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>623433</v>
+        <v>623190</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>654388</v>
+        <v>653122</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9235804265741565</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8997693347819971</v>
+        <v>0.8994190735850808</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9444453636987467</v>
+        <v>0.9426182680956433</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1189</v>
@@ -4356,19 +4356,19 @@
         <v>1282596</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1262872</v>
+        <v>1262919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1299702</v>
+        <v>1298683</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9467636575891943</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9322041566137349</v>
+        <v>0.932238669991753</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9593908010534187</v>
+        <v>0.9586389121712491</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>26923</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17771</v>
+        <v>17926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39968</v>
+        <v>39249</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0347838667520198</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0229587754633467</v>
+        <v>0.02315967126024113</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05163708243775139</v>
+        <v>0.05070815208728519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -4481,19 +4481,19 @@
         <v>55263</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42049</v>
+        <v>43065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73328</v>
+        <v>72183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06707884748683247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05103913666006824</v>
+        <v>0.05227209504346451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08900571696656039</v>
+        <v>0.08761692025289505</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4502,19 +4502,19 @@
         <v>82187</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65369</v>
+        <v>64643</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101695</v>
+        <v>102919</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05143492451767023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04091016729106601</v>
+        <v>0.04045573571486123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06364363291917575</v>
+        <v>0.06440972428311303</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>747099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>734054</v>
+        <v>734773</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>756251</v>
+        <v>756096</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9652161332479802</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.948362917562249</v>
+        <v>0.9492918479127147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9770412245366533</v>
+        <v>0.9768403287397588</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>708</v>
@@ -4552,19 +4552,19 @@
         <v>768590</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>750525</v>
+        <v>751670</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>781804</v>
+        <v>780788</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9329211525131675</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9109942830334398</v>
+        <v>0.9123830797471049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9489608633399318</v>
+        <v>0.9477279049565355</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1396</v>
@@ -4573,19 +4573,19 @@
         <v>1515688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1496180</v>
+        <v>1494956</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1532506</v>
+        <v>1533232</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9485650754823297</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9363563670808241</v>
+        <v>0.9355902757168866</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.959089832708934</v>
+        <v>0.9595442642851387</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>172832</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05068866254906773</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>322</v>
@@ -4698,19 +4698,19 @@
         <v>350529</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09861697435913626</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>477</v>
@@ -4719,19 +4719,19 @@
         <v>523361</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07515093654673236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3236855</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3208541</v>
+        <v>3205223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3263984</v>
+        <v>3260573</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9493113374509322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9410076291165581</v>
+        <v>0.9400345133057444</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9572679559151184</v>
+        <v>0.9562675011699139</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2972</v>
@@ -4769,19 +4769,19 @@
         <v>3203915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3166495</v>
+        <v>3167411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3237681</v>
+        <v>3237475</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9013830256408637</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8908550861614439</v>
+        <v>0.8911129747698211</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9108824737050659</v>
+        <v>0.9108245159023277</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6010</v>
@@ -4790,19 +4790,19 @@
         <v>6440770</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6395337</v>
+        <v>6387887</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6483271</v>
+        <v>6482680</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9248490634532677</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9183252048834919</v>
+        <v>0.9172554191181793</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9309518661850374</v>
+        <v>0.9308670464249186</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>18720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11172</v>
+        <v>11170</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27844</v>
+        <v>28713</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06466245934465085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03859109848283069</v>
+        <v>0.03858320227049058</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09618109898245289</v>
+        <v>0.09918349378204655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -5159,19 +5159,19 @@
         <v>44077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32470</v>
+        <v>32505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59338</v>
+        <v>58196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1536561326208508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1131955435977262</v>
+        <v>0.1133164611635906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2068605626565421</v>
+        <v>0.2028796486496273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -5180,19 +5180,19 @@
         <v>62796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49697</v>
+        <v>48868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81584</v>
+        <v>80277</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1089551605634818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08622786935533651</v>
+        <v>0.0847896693894175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1415524603976321</v>
+        <v>0.1392854266164497</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>270776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261652</v>
+        <v>260783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278324</v>
+        <v>278326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9353375406553491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.903818901017547</v>
+        <v>0.9008165062179531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9614089015171693</v>
+        <v>0.9614167977295094</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -5230,19 +5230,19 @@
         <v>242775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227514</v>
+        <v>228656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254382</v>
+        <v>254347</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8463438673791491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7931394373434569</v>
+        <v>0.7971203513503727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8868044564022738</v>
+        <v>0.8866835388364095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>478</v>
@@ -5251,19 +5251,19 @@
         <v>513553</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>494765</v>
+        <v>496072</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>526652</v>
+        <v>527481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8910448394365182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.858447539602368</v>
+        <v>0.860714573383551</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9137721306446637</v>
+        <v>0.9152103306105827</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>21204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13710</v>
+        <v>13657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32644</v>
+        <v>31540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04219142011237768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02727881801172786</v>
+        <v>0.02717458886761166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06495270095750855</v>
+        <v>0.06275734931849572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -5376,19 +5376,19 @@
         <v>42039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30427</v>
+        <v>29633</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57000</v>
+        <v>58162</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08086859209879674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0585298844386381</v>
+        <v>0.05700305168489554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1096480481328012</v>
+        <v>0.1118833992595592</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -5397,19 +5397,19 @@
         <v>63244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47925</v>
+        <v>47566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82454</v>
+        <v>81323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06185667723994665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04687392768952937</v>
+        <v>0.04652281985053341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08064535868156399</v>
+        <v>0.07953940109096203</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>481371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469931</v>
+        <v>471035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488865</v>
+        <v>488918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9578085798876224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9350472990424921</v>
+        <v>0.9372426506815044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9727211819882722</v>
+        <v>0.9728254111323889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -5447,19 +5447,19 @@
         <v>477807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462846</v>
+        <v>461684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489419</v>
+        <v>490213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9191314079012033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8903519518671987</v>
+        <v>0.8881166007404407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9414701155613618</v>
+        <v>0.9429969483151045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>901</v>
@@ -5468,19 +5468,19 @@
         <v>959178</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>939968</v>
+        <v>941099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>974497</v>
+        <v>974856</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9381433227600533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9193546413184361</v>
+        <v>0.9204605989090376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9531260723104708</v>
+        <v>0.9534771801494665</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>4866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1536</v>
+        <v>1675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10744</v>
+        <v>12179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01540376150454803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004863065911398252</v>
+        <v>0.005302066534608628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03401166253176138</v>
+        <v>0.0385535489336872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>14588</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8514</v>
+        <v>8035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23805</v>
+        <v>24545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04404398117097546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02570499671687702</v>
+        <v>0.02426020052543382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07187362916554692</v>
+        <v>0.07410787761821665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -5614,19 +5614,19 @@
         <v>19454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12440</v>
+        <v>11233</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29576</v>
+        <v>29481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03006280499520111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01922446674249325</v>
+        <v>0.01735868273301972</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04570585316397301</v>
+        <v>0.0455594268739898</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305147</v>
+        <v>303712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314355</v>
+        <v>314216</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.984596238495452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9659883374682414</v>
+        <v>0.9614464510663128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9951369340886018</v>
+        <v>0.9946979334653896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -5664,19 +5664,19 @@
         <v>316619</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307402</v>
+        <v>306662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322693</v>
+        <v>323172</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9559560188290246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9281263708344532</v>
+        <v>0.9258921223817834</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.974295003283123</v>
+        <v>0.9757397994745662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>640</v>
@@ -5685,19 +5685,19 @@
         <v>627644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617522</v>
+        <v>617617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634658</v>
+        <v>635865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9699371950047989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9542941468360266</v>
+        <v>0.9544405731260103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9807755332575067</v>
+        <v>0.9826413172669802</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>32152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21319</v>
+        <v>22591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44052</v>
+        <v>44647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08738273764422969</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05794093192774773</v>
+        <v>0.06139701250276611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1197218068111049</v>
+        <v>0.1213389888693718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -5810,19 +5810,19 @@
         <v>73988</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59242</v>
+        <v>58874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91014</v>
+        <v>93010</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1925547606457788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1541768937930962</v>
+        <v>0.1532188084770907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2368651148215937</v>
+        <v>0.2420587119146371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -5831,19 +5831,19 @@
         <v>106141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88644</v>
+        <v>87042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127468</v>
+        <v>128177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1411080241776798</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1178474832776591</v>
+        <v>0.1157168896289288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1694617647092623</v>
+        <v>0.1704048383916743</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>335797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323897</v>
+        <v>323302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346630</v>
+        <v>345358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9126172623557703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8802781931888948</v>
+        <v>0.8786610111306282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9420590680722521</v>
+        <v>0.9386029874972341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -5881,19 +5881,19 @@
         <v>310257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293231</v>
+        <v>291235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>325003</v>
+        <v>325371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8074452393542212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7631348851784064</v>
+        <v>0.757941288085363</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8458231062069038</v>
+        <v>0.8467811915229093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>612</v>
@@ -5902,19 +5902,19 @@
         <v>646053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624726</v>
+        <v>624017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663550</v>
+        <v>665152</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8588919758223202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8305382352907378</v>
+        <v>0.8295951616083258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.882152516722341</v>
+        <v>0.8842831103710712</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>7812</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3786</v>
+        <v>3823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14741</v>
+        <v>14785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03783817401594777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01833496704129359</v>
+        <v>0.01851712655449095</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07139682204584576</v>
+        <v>0.07161151839921025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -6027,19 +6027,19 @@
         <v>15798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9020</v>
+        <v>8813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25372</v>
+        <v>25568</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07227174339507046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04126356763660273</v>
+        <v>0.04031670111096273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1160713763258552</v>
+        <v>0.1169704135875565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6048,19 +6048,19 @@
         <v>23610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15429</v>
+        <v>15657</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34065</v>
+        <v>34895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05554598215890309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03629810177621108</v>
+        <v>0.03683652020794197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08014250530815717</v>
+        <v>0.08209506831264671</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>198653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191724</v>
+        <v>191680</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202679</v>
+        <v>202642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9621618259840522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9286031779541543</v>
+        <v>0.9283884816007898</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816650329587064</v>
+        <v>0.981482873445509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -6098,19 +6098,19 @@
         <v>202789</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193215</v>
+        <v>193019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209567</v>
+        <v>209774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9277282566049295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8839286236741447</v>
+        <v>0.8830295864124439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.958736432363397</v>
+        <v>0.9596832988890374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>407</v>
@@ -6119,19 +6119,19 @@
         <v>401442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390987</v>
+        <v>390157</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409623</v>
+        <v>409395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9444540178410969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9198574946918427</v>
+        <v>0.9179049316873532</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9637018982237889</v>
+        <v>0.963163479792058</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>10537</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5761</v>
+        <v>5963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18381</v>
+        <v>18137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04004450139629134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02189291193239419</v>
+        <v>0.02266327191416003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06985766634386839</v>
+        <v>0.06893057469313373</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -6244,19 +6244,19 @@
         <v>22441</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14427</v>
+        <v>13712</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32923</v>
+        <v>32602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08281268926198083</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05323938685029873</v>
+        <v>0.05060142220059147</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1214942075912306</v>
+        <v>0.1203106250411542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -6265,19 +6265,19 @@
         <v>32977</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22173</v>
+        <v>22849</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44662</v>
+        <v>45356</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06174315122291599</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04151476754377253</v>
+        <v>0.04278005270188838</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08362036628513286</v>
+        <v>0.08491921006835677</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>252586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244742</v>
+        <v>244986</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257362</v>
+        <v>257160</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9599554986037087</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9301423336561305</v>
+        <v>0.9310694253068661</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9781070880676055</v>
+        <v>0.9773367280858399</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>242</v>
@@ -6315,19 +6315,19 @@
         <v>248539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238057</v>
+        <v>238378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256553</v>
+        <v>257268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9171873107380192</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8785057924087691</v>
+        <v>0.8796893749588458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9467606131497012</v>
+        <v>0.9493985777994085</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>489</v>
@@ -6336,19 +6336,19 @@
         <v>501126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>489441</v>
+        <v>488747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511930</v>
+        <v>511254</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.938256848777084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9163796337148673</v>
+        <v>0.9150807899316433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9584852324562275</v>
+        <v>0.9572199472981116</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>28051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18956</v>
+        <v>19315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40253</v>
+        <v>41578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04317779112680256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02917785351802205</v>
+        <v>0.02973159601578355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0619595357071534</v>
+        <v>0.0639991445376029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -6461,19 +6461,19 @@
         <v>77351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60512</v>
+        <v>61566</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95379</v>
+        <v>95675</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1124014694887913</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08793238697898179</v>
+        <v>0.08946383367667374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.138599164525349</v>
+        <v>0.13902950843005</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>92</v>
@@ -6482,19 +6482,19 @@
         <v>105402</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87264</v>
+        <v>84808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127784</v>
+        <v>128515</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07878585788912917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06522784091593391</v>
+        <v>0.06339251801759142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09551602589235897</v>
+        <v>0.09606245727896606</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>621609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>609407</v>
+        <v>608082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>630704</v>
+        <v>630345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9568222088731975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9380404642928466</v>
+        <v>0.9360008554623971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.970822146481978</v>
+        <v>0.9702684039842165</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -6532,19 +6532,19 @@
         <v>610815</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>592787</v>
+        <v>592491</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>627654</v>
+        <v>626600</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8875985305112087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8614008354746511</v>
+        <v>0.8609704915699501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9120676130210181</v>
+        <v>0.9105361663233263</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1126</v>
@@ -6553,19 +6553,19 @@
         <v>1232424</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1210042</v>
+        <v>1209311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1250562</v>
+        <v>1253018</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9212141421108708</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.904483974107641</v>
+        <v>0.9039375427210338</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.934772159084066</v>
+        <v>0.9366074819824085</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>16150</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9580</v>
+        <v>9456</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25029</v>
+        <v>25307</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02085299578666167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01237031285801776</v>
+        <v>0.01220913796821765</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03231700082104874</v>
+        <v>0.03267604022059001</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -6678,19 +6678,19 @@
         <v>31465</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21139</v>
+        <v>21542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45713</v>
+        <v>44766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.038273431377946</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02571295146091077</v>
+        <v>0.02620350211748704</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05560424017120658</v>
+        <v>0.05445264076575346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -6699,19 +6699,19 @@
         <v>47615</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33058</v>
+        <v>33869</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62265</v>
+        <v>64104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02982308796100801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02070536053889207</v>
+        <v>0.02121328010136419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03899887743831856</v>
+        <v>0.040151152261162</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>758321</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>749442</v>
+        <v>749164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764891</v>
+        <v>765015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9791470042133383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9676829991789514</v>
+        <v>0.9673239597794104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9876296871419823</v>
+        <v>0.9877908620317827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>725</v>
@@ -6749,19 +6749,19 @@
         <v>790640</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>776392</v>
+        <v>777339</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>800966</v>
+        <v>800563</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.961726568622054</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9443957598287936</v>
+        <v>0.9455473592342465</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9742870485390893</v>
+        <v>0.973796497882513</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -6770,19 +6770,19 @@
         <v>1548961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1534311</v>
+        <v>1532472</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1563518</v>
+        <v>1562707</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.970176912038992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9610011225616814</v>
+        <v>0.9598488477388371</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.979294639461108</v>
+        <v>0.9787867198986359</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>139492</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04139683275043778</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>280</v>
@@ -6895,19 +6895,19 @@
         <v>321746</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09135340691772915</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>416</v>
@@ -6916,19 +6916,19 @@
         <v>461238</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06692733705256877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3230138</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3205939</v>
+        <v>3205559</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3252269</v>
+        <v>3253091</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9586031672495622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9514217886405135</v>
+        <v>0.9513089706245613</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9651708865305723</v>
+        <v>0.9654149891937188</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3036</v>
@@ -6966,19 +6966,19 @@
         <v>3200243</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3161212</v>
+        <v>3161434</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3235634</v>
+        <v>3235378</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9086465930822708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8975645331908519</v>
+        <v>0.8976274311631914</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9186950865411683</v>
+        <v>0.9186223426163801</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6108</v>
@@ -6987,19 +6987,19 @@
         <v>6430380</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6382070</v>
+        <v>6383468</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6471751</v>
+        <v>6473882</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9330726629474312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9260626002145009</v>
+        <v>0.9262654555787739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9390757688149611</v>
+        <v>0.9393849777712041</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>6313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3237</v>
+        <v>3054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13935</v>
+        <v>12690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01980026813001782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0101518825238591</v>
+        <v>0.009579155329985425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04370356375424959</v>
+        <v>0.03979942848121742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -7356,19 +7356,19 @@
         <v>15467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10494</v>
+        <v>9963</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25182</v>
+        <v>24585</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04893606472389549</v>
+        <v>0.0489360647238955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03320144116950296</v>
+        <v>0.03152126835041449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07967597628977924</v>
+        <v>0.0777841974341331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -7377,19 +7377,19 @@
         <v>21780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14646</v>
+        <v>14669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33001</v>
+        <v>32083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03430427298483066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02306753367092517</v>
+        <v>0.02310484228840322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05197852258285342</v>
+        <v>0.05053145965589127</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>312532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>304910</v>
+        <v>306155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315608</v>
+        <v>315791</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.980199731869982</v>
+        <v>0.9801997318699824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9562964362457491</v>
+        <v>0.9602005715187827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898481174761407</v>
+        <v>0.9904208446700147</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>513</v>
@@ -7427,19 +7427,19 @@
         <v>300594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290879</v>
+        <v>291476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305567</v>
+        <v>306098</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9510639352761046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9203240237102207</v>
+        <v>0.9222158025658681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.966798558830497</v>
+        <v>0.9684787316495858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -7448,19 +7448,19 @@
         <v>613126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601905</v>
+        <v>602823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>620260</v>
+        <v>620237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9656957270151695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9480214774171472</v>
+        <v>0.949468540344108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769324663290749</v>
+        <v>0.9768951577115966</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>28356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18615</v>
+        <v>18937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42719</v>
+        <v>44582</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05343749292885305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03508020721198859</v>
+        <v>0.03568614463663534</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0805031591528724</v>
+        <v>0.08401412194347968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -7573,19 +7573,19 @@
         <v>45501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35676</v>
+        <v>35063</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56619</v>
+        <v>57254</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08325997404102904</v>
+        <v>0.08325997404102907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06528180565705952</v>
+        <v>0.06415977813540327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1036046701402203</v>
+        <v>0.1047651949728015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -7594,19 +7594,19 @@
         <v>73858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58824</v>
+        <v>58551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91880</v>
+        <v>92417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06856811369850996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05461168232480235</v>
+        <v>0.05435789976964992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08529991093845708</v>
+        <v>0.08579842973871625</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>502291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487928</v>
+        <v>486065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512032</v>
+        <v>511710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.946562507071147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9194968408471276</v>
+        <v>0.9159858780565201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9649197927880114</v>
+        <v>0.9643138553633644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>650</v>
@@ -7644,19 +7644,19 @@
         <v>500993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489875</v>
+        <v>489240</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510818</v>
+        <v>511431</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9167400259589708</v>
+        <v>0.916740025958971</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8963953298597795</v>
+        <v>0.8952348050271981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9347181943429402</v>
+        <v>0.9358402218645965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1009</v>
@@ -7665,19 +7665,19 @@
         <v>1003283</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>985261</v>
+        <v>984724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018317</v>
+        <v>1018590</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9314318863014901</v>
+        <v>0.9314318863014902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9147000890615429</v>
+        <v>0.914201570261284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9453883176751975</v>
+        <v>0.9456421002303502</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>48998</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38869</v>
+        <v>38270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62110</v>
+        <v>61622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1550594640226946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1230066641362432</v>
+        <v>0.1211098973704358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1965549802899043</v>
+        <v>0.1950115286726635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -7790,19 +7790,19 @@
         <v>69927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59147</v>
+        <v>59611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81416</v>
+        <v>82432</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.196213743674726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1659661301116554</v>
+        <v>0.1672666953508617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.228452685993603</v>
+        <v>0.2313022803934104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -7811,19 +7811,19 @@
         <v>118925</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102853</v>
+        <v>103208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135671</v>
+        <v>135152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1768726224347551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1529699550987703</v>
+        <v>0.1534974917969323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2017792115998469</v>
+        <v>0.2010068488084826</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>266995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253883</v>
+        <v>254371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277124</v>
+        <v>277723</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8449405359773056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8034450197100959</v>
+        <v>0.8049884713273364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8769933358637569</v>
+        <v>0.8788901026295637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -7861,19 +7861,19 @@
         <v>286454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>274965</v>
+        <v>273949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>297234</v>
+        <v>296770</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.803786256325274</v>
+        <v>0.8037862563252739</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7715473140063976</v>
+        <v>0.7686977196065896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.834033869888345</v>
+        <v>0.8327333046491383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>701</v>
@@ -7882,19 +7882,19 @@
         <v>553450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>536704</v>
+        <v>537223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569522</v>
+        <v>569167</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.823127377565245</v>
+        <v>0.8231273775652449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7982207884001529</v>
+        <v>0.7989931511915173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8470300449012296</v>
+        <v>0.8465025082030676</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>39633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27967</v>
+        <v>27695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53953</v>
+        <v>53950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1066646424949593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07526652399617086</v>
+        <v>0.07453624811184906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1452045367704772</v>
+        <v>0.1451956815883717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -8007,19 +8007,19 @@
         <v>72705</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60842</v>
+        <v>59946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89081</v>
+        <v>88263</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1724996853707902</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1443532891289474</v>
+        <v>0.1422268275439174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2113527547611976</v>
+        <v>0.2094125300547564</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -8028,19 +8028,19 @@
         <v>112338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94727</v>
+        <v>95707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134766</v>
+        <v>134043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1416539673376525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1194468808791969</v>
+        <v>0.1206824760565461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1699339718194637</v>
+        <v>0.1690221661520368</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>331934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>317614</v>
+        <v>317617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343600</v>
+        <v>343872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8933353575050408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8547954632295234</v>
+        <v>0.8548043184116283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9247334760038294</v>
+        <v>0.925463751888151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -8078,19 +8078,19 @@
         <v>348775</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332399</v>
+        <v>333217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360638</v>
+        <v>361534</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8275003146292098</v>
+        <v>0.8275003146292099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7886472452388015</v>
+        <v>0.7905874699452431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8556467108710527</v>
+        <v>0.8577731724560826</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -8099,19 +8099,19 @@
         <v>680709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>658281</v>
+        <v>659004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698320</v>
+        <v>697340</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8583460326623477</v>
+        <v>0.8583460326623475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8300660281805362</v>
+        <v>0.8309778338479631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8805531191208031</v>
+        <v>0.8793175239434539</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>12690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7542</v>
+        <v>7889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19326</v>
+        <v>19498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06170321088939386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03667183842880395</v>
+        <v>0.03835898057404438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0939668806329</v>
+        <v>0.09480417182023007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -8224,19 +8224,19 @@
         <v>14777</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10455</v>
+        <v>10893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20009</v>
+        <v>20766</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06516686816418041</v>
+        <v>0.06516686816418039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04610808346887325</v>
+        <v>0.04804152176402897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08824259322880822</v>
+        <v>0.09158161257788416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -8245,19 +8245,19 @@
         <v>27467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20726</v>
+        <v>20828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35008</v>
+        <v>35403</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06351948279751742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0479302812704185</v>
+        <v>0.04816588316146848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08095965702262974</v>
+        <v>0.08187221977816157</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>192975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186339</v>
+        <v>186167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198123</v>
+        <v>197776</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.938296789110606</v>
+        <v>0.9382967891106062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9060331193671002</v>
+        <v>0.90519582817977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9633281615711962</v>
+        <v>0.9616410194259556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>454</v>
@@ -8295,19 +8295,19 @@
         <v>211972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206740</v>
+        <v>205983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216294</v>
+        <v>215856</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9348331318358197</v>
+        <v>0.9348331318358196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9117574067711918</v>
+        <v>0.9084183874221157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9538919165311267</v>
+        <v>0.951958478235971</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>713</v>
@@ -8316,19 +8316,19 @@
         <v>404947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397406</v>
+        <v>397011</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411688</v>
+        <v>411586</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9364805172024825</v>
+        <v>0.9364805172024826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9190403429773698</v>
+        <v>0.9181277802218387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9520697187295815</v>
+        <v>0.9518341168385316</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>43431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34248</v>
+        <v>34081</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53788</v>
+        <v>53460</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1604350665760403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1265143683647145</v>
+        <v>0.125895151283839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1986935223355951</v>
+        <v>0.1974835919080939</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>150</v>
@@ -8441,19 +8441,19 @@
         <v>67300</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57765</v>
+        <v>58084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77545</v>
+        <v>77903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2551663545312856</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2190136664033247</v>
+        <v>0.220222822145967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2940076794943994</v>
+        <v>0.2953683838027973</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>222</v>
@@ -8462,19 +8462,19 @@
         <v>110731</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96898</v>
+        <v>96839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125992</v>
+        <v>126436</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.207184182358877</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1813013299742882</v>
+        <v>0.1811908542203985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2357379799860917</v>
+        <v>0.2365695495745052</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>227276</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216919</v>
+        <v>217247</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236459</v>
+        <v>236626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8395649334239598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8013064776644048</v>
+        <v>0.8025164080919061</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8734856316352856</v>
+        <v>0.8741048487161609</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>310</v>
@@ -8512,19 +8512,19 @@
         <v>196450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186205</v>
+        <v>185847</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205985</v>
+        <v>205666</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7448336454687144</v>
+        <v>0.7448336454687142</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7059923205056006</v>
+        <v>0.7046316161972025</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7809863335966755</v>
+        <v>0.7797771778540331</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>609</v>
@@ -8533,19 +8533,19 @@
         <v>423726</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>408465</v>
+        <v>408021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>437559</v>
+        <v>437618</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7928158176411231</v>
+        <v>0.792815817641123</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7642620200139084</v>
+        <v>0.7634304504254948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8186986700257121</v>
+        <v>0.8188091457796014</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>56699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41407</v>
+        <v>43627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73349</v>
+        <v>73391</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07889307169986517</v>
+        <v>0.07889307169986519</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05761567018327015</v>
+        <v>0.06070477142354627</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1020607974621732</v>
+        <v>0.1021183168052856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -8658,19 +8658,19 @@
         <v>92229</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76841</v>
+        <v>77909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108263</v>
+        <v>108448</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1197702531439929</v>
+        <v>0.1197702531439928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0997869433343349</v>
+        <v>0.1011729234343939</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1405919329117577</v>
+        <v>0.1408318192490569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -8679,19 +8679,19 @@
         <v>148928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129412</v>
+        <v>127713</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172012</v>
+        <v>171671</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1000369090906526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08692759555017963</v>
+        <v>0.08578627780170804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.115542335009636</v>
+        <v>0.1153134715867781</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>661984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645334</v>
+        <v>645292</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>677276</v>
+        <v>675056</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9211069283001349</v>
+        <v>0.9211069283001351</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8979392025378266</v>
+        <v>0.8978816831947144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9423843298167296</v>
+        <v>0.9392952285764536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>827</v>
@@ -8729,19 +8729,19 @@
         <v>677824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>661790</v>
+        <v>661605</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>693212</v>
+        <v>692144</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8802297468560073</v>
+        <v>0.8802297468560072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8594080670882421</v>
+        <v>0.859168180750943</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.900213056665665</v>
+        <v>0.898827076565606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1372</v>
@@ -8750,19 +8750,19 @@
         <v>1339807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1316723</v>
+        <v>1317064</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1359323</v>
+        <v>1361022</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8999630909093475</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8844576649903639</v>
+        <v>0.8846865284132218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9130724044498204</v>
+        <v>0.9142137221982918</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>43099</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32479</v>
+        <v>31938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57408</v>
+        <v>58474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05407437359070705</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04074995297297602</v>
+        <v>0.04007064037066091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0720272703523608</v>
+        <v>0.07336472455575886</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -8875,19 +8875,19 @@
         <v>87643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73037</v>
+        <v>73538</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101724</v>
+        <v>102068</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1056163271136845</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08801516773213189</v>
+        <v>0.08861817024590571</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1225852439330933</v>
+        <v>0.1229996354974454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>177</v>
@@ -8896,19 +8896,19 @@
         <v>130742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112582</v>
+        <v>113079</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149529</v>
+        <v>151335</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08036481128440108</v>
+        <v>0.08036481128440109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0692020728430881</v>
+        <v>0.06950775362707438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09191275322673378</v>
+        <v>0.09302316334704758</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>753934</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>739625</v>
+        <v>738559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764554</v>
+        <v>765095</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9459256264092929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9279727296476394</v>
+        <v>0.9266352754442408</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9592500470270241</v>
+        <v>0.9599293596293391</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>930</v>
@@ -8946,19 +8946,19 @@
         <v>742182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>728101</v>
+        <v>727757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>756788</v>
+        <v>756287</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8943836728863156</v>
+        <v>0.8943836728863157</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8774147560669068</v>
+        <v>0.8770003645025549</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9119848322678683</v>
+        <v>0.9113818297540943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1644</v>
@@ -8967,19 +8967,19 @@
         <v>1496115</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1477328</v>
+        <v>1475522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1514275</v>
+        <v>1513778</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9196351887155988</v>
+        <v>0.9196351887155989</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9080872467732665</v>
+        <v>0.9069768366529525</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9307979271569119</v>
+        <v>0.9304922463729257</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>279220</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07911834155467362</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>791</v>
@@ -9092,19 +9092,19 @@
         <v>465549</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1247855704046189</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1119</v>
@@ -9113,19 +9113,19 @@
         <v>744769</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1025861891987821</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3249920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3218689</v>
+        <v>3215962</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3281073</v>
+        <v>3278517</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9208816584453264</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9120320950876893</v>
+        <v>0.9112592744295772</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9297088245125052</v>
+        <v>0.9289846442881801</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4566</v>
@@ -9163,19 +9163,19 @@
         <v>3265245</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3237391</v>
+        <v>3229072</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3298301</v>
+        <v>3295672</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8752144295953812</v>
+        <v>0.875214429595381</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.86774865958129</v>
+        <v>0.8655188154812694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.884074849269883</v>
+        <v>0.8833700326938393</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7611</v>
@@ -9184,19 +9184,19 @@
         <v>6515165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6470865</v>
+        <v>6463192</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6560408</v>
+        <v>6557439</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8974138108012178</v>
+        <v>0.897413810801218</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8913117537992378</v>
+        <v>0.8902549561130247</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9036457087420793</v>
+        <v>0.9032366920835685</v>
       </c>
     </row>
     <row r="30">
